--- a/iacs/ex_tr_aws_basic/resource-ec2-aws_instance.xlsx
+++ b/iacs/ex_tr_aws_basic/resource-ec2-aws_instance.xlsx
@@ -408,7 +408,7 @@
         <v>foo</v>
       </c>
       <c r="B2" t="str">
-        <v>ami-0dfb4b2fe71065a95</v>
+        <v>ami-008e1e7f1fcbe9b80</v>
       </c>
       <c r="C2" t="str">
         <v>t2.micro</v>
